--- a/output/CARIN-BB-RelatedPerson.xlsx
+++ b/output/CARIN-BB-RelatedPerson.xlsx
@@ -568,9 +568,11 @@
     <t>memberid</t>
   </si>
   <si>
-    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;code value="MB"/&gt;
-&lt;/valueCoding&gt;</t>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;code value="MB"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
@@ -582,9 +584,11 @@
     <t>subscriberid</t>
   </si>
   <si>
-    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;code value="SN"/&gt;
-&lt;/valueCoding&gt;</t>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;code value="SN"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>RelatedPerson.active</t>
